--- a/dta/test.xlsx
+++ b/dta/test.xlsx
@@ -15,7 +15,100 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
-    <t xml:space="preserve">estimate</t>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop Growth 2017-2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop Growth 2016-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop Growth 2015-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop Growth 2014-2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop Growth 2013-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop Growth 2012-2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop Growth 2011-2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less HS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS Grad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some College or AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA or Higher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median HH Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak only English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak Language other than English at home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited English Proficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citizen Age Voting Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Born</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Born</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Health Insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With Private Insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renter</t>
   </si>
   <si>
     <t xml:space="preserve">AIAN alone</t>
@@ -133,99 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vietnamese alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop Growth 2017-2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop Growth 2016-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop Growth 2015-2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop Growth 2014-2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop Growth 2013-2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop Growth 2012-2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop Growth 2011-2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less HS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HS Grad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some College or AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA or Higher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median HH Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak only English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak Language other than English at home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limited English Proficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citizen Age Voting Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native Born</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Born</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Health Insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With Private Insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renter</t>
   </si>
 </sst>
 </file>
@@ -308,49 +308,41 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AN32" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:AN32"/>
-  <tableColumns count="40">
-    <tableColumn id="1" name="estimate"/>
-    <tableColumn id="2" name="AIAN alone"/>
-    <tableColumn id="3" name="Asian alone"/>
-    <tableColumn id="4" name="Asian Indian alone"/>
-    <tableColumn id="5" name="Bangladeshi alone"/>
-    <tableColumn id="6" name="Bhutanese alone"/>
-    <tableColumn id="7" name="Black alone"/>
-    <tableColumn id="8" name="Burmese alone"/>
-    <tableColumn id="9" name="Cambodian alone"/>
-    <tableColumn id="10" name="Central American"/>
-    <tableColumn id="11" name="Chinese alone"/>
-    <tableColumn id="12" name="Cuban"/>
-    <tableColumn id="13" name="Dominican"/>
-    <tableColumn id="14" name="Fijian alone"/>
-    <tableColumn id="15" name="Filipino alone"/>
-    <tableColumn id="16" name="Guamanian or Chamorro alone"/>
-    <tableColumn id="17" name="Hispanic of any race"/>
-    <tableColumn id="18" name="Hmong alone"/>
-    <tableColumn id="19" name="Indonesian alone"/>
-    <tableColumn id="20" name="Japanese alone"/>
-    <tableColumn id="21" name="Korean alone"/>
-    <tableColumn id="22" name="Laotian alone"/>
-    <tableColumn id="23" name="Malaysian alone"/>
-    <tableColumn id="24" name="Marshallese alone"/>
-    <tableColumn id="25" name="Mexican"/>
-    <tableColumn id="26" name="Mongolian alone"/>
-    <tableColumn id="27" name="Native Hawaiian alone"/>
-    <tableColumn id="28" name="Nepalese alone"/>
-    <tableColumn id="29" name="NHPI alone"/>
-    <tableColumn id="30" name="Non-Hispanic White alone"/>
-    <tableColumn id="31" name="Pakistani alone"/>
-    <tableColumn id="32" name="Puerto Rican"/>
-    <tableColumn id="33" name="Samoan alone"/>
-    <tableColumn id="34" name="South American"/>
-    <tableColumn id="35" name="Sri Lankan alone"/>
-    <tableColumn id="36" name="Taiwanese alone"/>
-    <tableColumn id="37" name="Thai alone"/>
-    <tableColumn id="38" name="Tongan alone"/>
-    <tableColumn id="39" name="US Average"/>
-    <tableColumn id="40" name="Vietnamese alone"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AF40" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:AF40"/>
+  <tableColumns count="32">
+    <tableColumn id="1" name="group"/>
+    <tableColumn id="2" name="Population 2017"/>
+    <tableColumn id="3" name="Population 2016"/>
+    <tableColumn id="4" name="Population 2015"/>
+    <tableColumn id="5" name="Population 2014"/>
+    <tableColumn id="6" name="Population 2013"/>
+    <tableColumn id="7" name="Population 2012"/>
+    <tableColumn id="8" name="Population 2011"/>
+    <tableColumn id="9" name="Population 2010"/>
+    <tableColumn id="10" name="Pop Growth 2017-2016"/>
+    <tableColumn id="11" name="Pop Growth 2016-2015"/>
+    <tableColumn id="12" name="Pop Growth 2015-2014"/>
+    <tableColumn id="13" name="Pop Growth 2014-2013"/>
+    <tableColumn id="14" name="Pop Growth 2013-2012"/>
+    <tableColumn id="15" name="Pop Growth 2012-2011"/>
+    <tableColumn id="16" name="Pop Growth 2011-2010"/>
+    <tableColumn id="17" name="Less HS"/>
+    <tableColumn id="18" name="HS Grad"/>
+    <tableColumn id="19" name="Some College or AA"/>
+    <tableColumn id="20" name="BA or Higher"/>
+    <tableColumn id="21" name="Median HH Income"/>
+    <tableColumn id="22" name="Median Age"/>
+    <tableColumn id="23" name="Speak only English"/>
+    <tableColumn id="24" name="Speak Language other than English at home"/>
+    <tableColumn id="25" name="Limited English Proficient"/>
+    <tableColumn id="26" name="Citizen Age Voting Population"/>
+    <tableColumn id="27" name="Native Born"/>
+    <tableColumn id="28" name="Foreign Born"/>
+    <tableColumn id="29" name="No Health Insurance"/>
+    <tableColumn id="30" name="With Private Insurance"/>
+    <tableColumn id="31" name="Owner"/>
+    <tableColumn id="32" name="Renter"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -752,3806 +744,3822 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2" t="n">
         <v>2726278</v>
       </c>
       <c r="C2" t="n">
-        <v>18215328</v>
+        <v>2676399</v>
       </c>
       <c r="D2" t="n">
-        <v>4094539</v>
+        <v>2597249</v>
       </c>
       <c r="E2" t="n">
-        <v>176229</v>
+        <v>2601714</v>
       </c>
       <c r="F2" t="n">
-        <v>23904</v>
+        <v>2521131</v>
       </c>
       <c r="G2" t="n">
-        <v>41393491</v>
+        <v>2563505</v>
       </c>
       <c r="H2" t="n">
-        <v>180474</v>
+        <v>2547006</v>
       </c>
       <c r="I2" t="n">
-        <v>269577</v>
+        <v>2553566</v>
       </c>
       <c r="J2" t="n">
-        <v>5562327</v>
+        <v>0.018636608</v>
       </c>
       <c r="K2" t="n">
-        <v>4180186</v>
+        <v>0.030474552</v>
       </c>
       <c r="L2" t="n">
-        <v>2315863</v>
+        <v>-0.001716176</v>
       </c>
       <c r="M2" t="n">
-        <v>2081419</v>
+        <v>0.031963036</v>
       </c>
       <c r="N2" t="n">
-        <v>36590</v>
+        <v>-0.016529712</v>
       </c>
       <c r="O2" t="n">
-        <v>2911668</v>
+        <v>0.006477802</v>
       </c>
       <c r="P2" t="n">
-        <v>85771</v>
+        <v>-0.002568957</v>
       </c>
       <c r="Q2" t="n">
-        <v>58846134</v>
+        <v>0.202914154</v>
       </c>
       <c r="R2" t="n">
-        <v>296069</v>
+        <v>0.315423881</v>
       </c>
       <c r="S2" t="n">
-        <v>76144</v>
+        <v>0.338280648</v>
       </c>
       <c r="T2" t="n">
-        <v>770546</v>
+        <v>0.143381317</v>
       </c>
       <c r="U2" t="n">
-        <v>1477282</v>
+        <v>40315</v>
       </c>
       <c r="V2" t="n">
-        <v>212307</v>
+        <v>32</v>
       </c>
       <c r="W2" t="n">
-        <v>18053</v>
+        <v>0.730877595</v>
       </c>
       <c r="X2" t="n">
-        <v>32571</v>
+        <v>0.269122405</v>
       </c>
       <c r="Y2" t="n">
-        <v>36668018</v>
+        <v>0.27185608</v>
       </c>
       <c r="Z2" t="n">
-        <v>21606</v>
+        <v>0.728867356</v>
       </c>
       <c r="AA2" t="n">
-        <v>191739</v>
+        <v>0.937348933</v>
       </c>
       <c r="AB2" t="n">
-        <v>171709</v>
+        <v>0.062651067</v>
       </c>
       <c r="AC2" t="n">
-        <v>608219</v>
+        <v>0.215890677</v>
       </c>
       <c r="AD2" t="n">
-        <v>197285202</v>
+        <v>0.421894825</v>
       </c>
       <c r="AE2" t="n">
-        <v>499099</v>
+        <v>0.54096296</v>
       </c>
       <c r="AF2" t="n">
-        <v>5588664</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>105076</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>3721161</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>44460</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>164795</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>211384</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>45610</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>325719178</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1826998</v>
+        <v>0.45903704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>2676399</v>
+        <v>18215328</v>
       </c>
       <c r="C3" t="n">
         <v>17556935</v>
       </c>
       <c r="D3" t="n">
-        <v>3813407</v>
+        <v>17273777</v>
       </c>
       <c r="E3" t="n">
-        <v>175592</v>
+        <v>16686960</v>
       </c>
       <c r="F3" t="n">
-        <v>30169</v>
+        <v>16012120</v>
       </c>
       <c r="G3" t="n">
-        <v>40893369</v>
+        <v>15555530</v>
       </c>
       <c r="H3" t="n">
-        <v>153262</v>
+        <v>15020419</v>
       </c>
       <c r="I3" t="n">
-        <v>259554</v>
+        <v>14728302</v>
       </c>
       <c r="J3" t="n">
-        <v>5319873</v>
+        <v>0.037500452</v>
       </c>
       <c r="K3" t="n">
-        <v>4048973</v>
+        <v>0.016392362</v>
       </c>
       <c r="L3" t="n">
-        <v>2212566</v>
+        <v>0.035166202</v>
       </c>
       <c r="M3" t="n">
-        <v>1914120</v>
+        <v>0.042145575</v>
       </c>
       <c r="N3" t="n">
-        <v>31037</v>
+        <v>0.029352263</v>
       </c>
       <c r="O3" t="n">
-        <v>2811885</v>
+        <v>0.035625571</v>
       </c>
       <c r="P3" t="n">
-        <v>82398</v>
+        <v>0.019833719</v>
       </c>
       <c r="Q3" t="n">
-        <v>57398719</v>
+        <v>0.134703381</v>
       </c>
       <c r="R3" t="n">
-        <v>278871</v>
+        <v>0.150315097</v>
       </c>
       <c r="S3" t="n">
-        <v>76516</v>
+        <v>0.187706534</v>
       </c>
       <c r="T3" t="n">
-        <v>789830</v>
+        <v>0.527274988</v>
       </c>
       <c r="U3" t="n">
-        <v>1438915</v>
+        <v>80398</v>
       </c>
       <c r="V3" t="n">
-        <v>205131</v>
+        <v>37</v>
       </c>
       <c r="W3" t="n">
-        <v>20973</v>
+        <v>0.249603197</v>
       </c>
       <c r="X3" t="n">
-        <v>36042</v>
+        <v>0.750396803</v>
       </c>
       <c r="Y3" t="n">
-        <v>36255589</v>
+        <v>0.451078478</v>
       </c>
       <c r="Z3" t="n">
-        <v>23198</v>
+        <v>0.545938981</v>
       </c>
       <c r="AA3" t="n">
-        <v>178874</v>
+        <v>0.33563305</v>
       </c>
       <c r="AB3" t="n">
-        <v>155573</v>
+        <v>0.66436695</v>
       </c>
       <c r="AC3" t="n">
-        <v>595986</v>
+        <v>0.091560215</v>
       </c>
       <c r="AD3" t="n">
-        <v>197479450</v>
+        <v>0.704686801</v>
       </c>
       <c r="AE3" t="n">
-        <v>460515</v>
+        <v>0.586957773</v>
       </c>
       <c r="AF3" t="n">
-        <v>5450472</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>119605</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>3460404</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>52006</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>165883</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>202744</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>43937</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>323127515</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1803575</v>
+        <v>0.413042227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>2597249</v>
+        <v>4094539</v>
       </c>
       <c r="C4" t="n">
-        <v>17273777</v>
+        <v>3813407</v>
       </c>
       <c r="D4" t="n">
         <v>3699957</v>
       </c>
       <c r="E4" t="n">
-        <v>176748</v>
+        <v>3491052</v>
       </c>
       <c r="F4" t="n">
-        <v>21150</v>
+        <v>3189485</v>
       </c>
       <c r="G4" t="n">
-        <v>40695277</v>
+        <v>3049201</v>
       </c>
       <c r="H4" t="n">
-        <v>153734</v>
+        <v>2908204</v>
       </c>
       <c r="I4" t="n">
-        <v>275738</v>
+        <v>2843391</v>
       </c>
       <c r="J4" t="n">
-        <v>5210908</v>
+        <v>0.073722002</v>
       </c>
       <c r="K4" t="n">
-        <v>3973723</v>
+        <v>0.030662519</v>
       </c>
       <c r="L4" t="n">
-        <v>2106501</v>
+        <v>0.059840128</v>
       </c>
       <c r="M4" t="n">
-        <v>1873097</v>
+        <v>0.094550374</v>
       </c>
       <c r="N4" t="n">
-        <v>30514</v>
+        <v>0.046006806</v>
       </c>
       <c r="O4" t="n">
-        <v>2848148</v>
+        <v>0.0484825</v>
       </c>
       <c r="P4" t="n">
-        <v>78522</v>
+        <v>0.022794262</v>
       </c>
       <c r="Q4" t="n">
-        <v>56496122</v>
+        <v>0.259930499</v>
       </c>
       <c r="R4" t="n">
-        <v>285064</v>
+        <v>0.074896828</v>
       </c>
       <c r="S4" t="n">
-        <v>74676</v>
+        <v>0.106952543</v>
       </c>
       <c r="T4" t="n">
-        <v>757468</v>
+        <v>0.558220131</v>
       </c>
       <c r="U4" t="n">
-        <v>1460483</v>
+        <v>121342.7</v>
       </c>
       <c r="V4" t="n">
-        <v>213954</v>
+        <v>33</v>
       </c>
       <c r="W4" t="n">
-        <v>18828</v>
+        <v>0.229127</v>
       </c>
       <c r="X4" t="n">
-        <v>22544</v>
+        <v>0.770873</v>
       </c>
       <c r="Y4" t="n">
-        <v>35797080</v>
+        <v>0.2588434</v>
       </c>
       <c r="Z4" t="n">
-        <v>16826</v>
+        <v>0.4347551</v>
       </c>
       <c r="AA4" t="n">
-        <v>176482</v>
+        <v>0.2862544</v>
       </c>
       <c r="AB4" t="n">
-        <v>134469</v>
+        <v>0.7137456</v>
       </c>
       <c r="AC4" t="n">
-        <v>554946</v>
+        <v>0.064189</v>
       </c>
       <c r="AD4" t="n">
-        <v>197534496</v>
+        <v>0.821</v>
       </c>
       <c r="AE4" t="n">
-        <v>482704</v>
+        <v>0.611</v>
       </c>
       <c r="AF4" t="n">
-        <v>5372759</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>120019</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>3403619</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>52932</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>159951</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>194766</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>46258</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>321418821</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1738848</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>2601714</v>
+        <v>176229</v>
       </c>
       <c r="C5" t="n">
-        <v>16686960</v>
+        <v>175592</v>
       </c>
       <c r="D5" t="n">
-        <v>3491052</v>
+        <v>176748</v>
       </c>
       <c r="E5" t="n">
         <v>160029</v>
       </c>
       <c r="F5" t="n">
-        <v>31626</v>
+        <v>160684</v>
       </c>
       <c r="G5" t="n">
-        <v>40379066</v>
+        <v>146612</v>
       </c>
       <c r="H5" t="n">
-        <v>138077</v>
+        <v>140153</v>
       </c>
       <c r="I5" t="n">
-        <v>265412</v>
+        <v>128792</v>
       </c>
       <c r="J5" t="n">
-        <v>5097021</v>
+        <v>0.003627728</v>
       </c>
       <c r="K5" t="n">
-        <v>3787716</v>
+        <v>-0.006540385</v>
       </c>
       <c r="L5" t="n">
-        <v>2046805</v>
+        <v>0.104474814</v>
       </c>
       <c r="M5" t="n">
-        <v>1760354</v>
+        <v>-0.004076324</v>
       </c>
       <c r="N5" t="n">
-        <v>33976</v>
+        <v>0.095981229</v>
       </c>
       <c r="O5" t="n">
-        <v>2770918</v>
+        <v>0.04608535</v>
       </c>
       <c r="P5" t="n">
-        <v>73811</v>
+        <v>0.088212001</v>
       </c>
       <c r="Q5" t="n">
-        <v>55279452</v>
+        <v>0.352059053</v>
       </c>
       <c r="R5" t="n">
-        <v>288215</v>
+        <v>0.144412632</v>
       </c>
       <c r="S5" t="n">
-        <v>71408</v>
+        <v>0.17041365</v>
       </c>
       <c r="T5" t="n">
-        <v>759056</v>
+        <v>0.333114666</v>
       </c>
       <c r="U5" t="n">
-        <v>1476577</v>
+        <v>53441.34</v>
       </c>
       <c r="V5" t="n">
-        <v>214807</v>
+        <v>31</v>
       </c>
       <c r="W5" t="n">
-        <v>20636</v>
+        <v>0.0795991</v>
       </c>
       <c r="X5" t="n">
-        <v>24467</v>
+        <v>0.9204009</v>
       </c>
       <c r="Y5" t="n">
-        <v>35320579</v>
+        <v>0.4951038</v>
       </c>
       <c r="Z5" t="n">
-        <v>19545</v>
+        <v>0.4471666</v>
       </c>
       <c r="AA5" t="n">
-        <v>180203</v>
+        <v>0.258534</v>
       </c>
       <c r="AB5" t="n">
-        <v>126331</v>
+        <v>0.741466</v>
       </c>
       <c r="AC5" t="n">
-        <v>557154</v>
+        <v>0.1285078</v>
       </c>
       <c r="AD5" t="n">
-        <v>197409353</v>
+        <v>0.467</v>
       </c>
       <c r="AE5" t="n">
-        <v>451489</v>
+        <v>0.462</v>
       </c>
       <c r="AF5" t="n">
-        <v>5266738</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>114288</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>3320848</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>40317</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>153899</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>194563</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34626</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>318857056</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1714143</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>2521131</v>
+        <v>23904</v>
       </c>
       <c r="C6" t="n">
-        <v>16012120</v>
+        <v>30169</v>
       </c>
       <c r="D6" t="n">
-        <v>3189485</v>
+        <v>21150</v>
       </c>
       <c r="E6" t="n">
-        <v>160684</v>
+        <v>31626</v>
       </c>
       <c r="F6" t="n">
         <v>29185</v>
       </c>
       <c r="G6" t="n">
-        <v>39919371</v>
+        <v>17964</v>
       </c>
       <c r="H6" t="n">
-        <v>125716</v>
+        <v>9978</v>
       </c>
       <c r="I6" t="n">
-        <v>271193</v>
+        <v>15290</v>
       </c>
       <c r="J6" t="n">
-        <v>4802410</v>
+        <v>-0.207663496</v>
       </c>
       <c r="K6" t="n">
-        <v>3630946</v>
+        <v>0.42643026</v>
       </c>
       <c r="L6" t="n">
-        <v>2013155</v>
+        <v>-0.331246443</v>
       </c>
       <c r="M6" t="n">
-        <v>1757961</v>
+        <v>0.083638856</v>
       </c>
       <c r="N6" t="n">
-        <v>32458</v>
+        <v>0.624638165</v>
       </c>
       <c r="O6" t="n">
-        <v>2664606</v>
+        <v>0.800360794</v>
       </c>
       <c r="P6" t="n">
-        <v>63655</v>
+        <v>-0.347416612</v>
       </c>
       <c r="Q6" t="n">
-        <v>53986412</v>
+        <v>0.661584653</v>
       </c>
       <c r="R6" t="n">
-        <v>272825</v>
+        <v>0.173399361</v>
       </c>
       <c r="S6" t="n">
-        <v>72228</v>
+        <v>0.096077361</v>
       </c>
       <c r="T6" t="n">
-        <v>794441</v>
+        <v>0.068938626</v>
       </c>
       <c r="U6" t="n">
-        <v>1446592</v>
+        <v>48031.48</v>
       </c>
       <c r="V6" t="n">
-        <v>215356</v>
+        <v>29</v>
       </c>
       <c r="W6" t="n">
-        <v>22970</v>
+        <v>0.0477075</v>
       </c>
       <c r="X6" t="n">
-        <v>25152</v>
+        <v>0.9522925</v>
       </c>
       <c r="Y6" t="n">
-        <v>34586088</v>
+        <v>0.7392557</v>
       </c>
       <c r="Z6" t="n">
-        <v>12976</v>
+        <v>0.1275496</v>
       </c>
       <c r="AA6" t="n">
-        <v>179489</v>
+        <v>0.1284832</v>
       </c>
       <c r="AB6" t="n">
-        <v>93142</v>
+        <v>0.8715168</v>
       </c>
       <c r="AC6" t="n">
-        <v>525750</v>
+        <v>0.1516087</v>
       </c>
       <c r="AD6" t="n">
-        <v>197392411</v>
+        <v>0.285</v>
       </c>
       <c r="AE6" t="n">
-        <v>442360</v>
+        <v>0.203</v>
       </c>
       <c r="AF6" t="n">
-        <v>5138109</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>105235</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>3260031</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>47059</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>150727</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>184368</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>40196</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>316128839</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1692760</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>2563505</v>
+        <v>41393491</v>
       </c>
       <c r="C7" t="n">
-        <v>15555530</v>
+        <v>40893369</v>
       </c>
       <c r="D7" t="n">
-        <v>3049201</v>
+        <v>40695277</v>
       </c>
       <c r="E7" t="n">
-        <v>146612</v>
+        <v>40379066</v>
       </c>
       <c r="F7" t="n">
-        <v>17964</v>
+        <v>39919371</v>
       </c>
       <c r="G7" t="n">
         <v>39623138</v>
       </c>
       <c r="H7" t="n">
-        <v>114295</v>
+        <v>39189528</v>
       </c>
       <c r="I7" t="n">
-        <v>256956</v>
+        <v>38874625</v>
       </c>
       <c r="J7" t="n">
-        <v>4760337</v>
+        <v>0.012229905</v>
       </c>
       <c r="K7" t="n">
-        <v>3507072</v>
+        <v>0.00486769</v>
       </c>
       <c r="L7" t="n">
-        <v>1957557</v>
+        <v>0.007831063</v>
       </c>
       <c r="M7" t="n">
-        <v>1656960</v>
+        <v>0.011515587</v>
       </c>
       <c r="N7" t="n">
-        <v>35530</v>
+        <v>0.007476263</v>
       </c>
       <c r="O7" t="n">
-        <v>2658354</v>
+        <v>0.011064435</v>
       </c>
       <c r="P7" t="n">
-        <v>72738</v>
+        <v>0.008100477</v>
       </c>
       <c r="Q7" t="n">
-        <v>52961017</v>
+        <v>0.151200617</v>
       </c>
       <c r="R7" t="n">
-        <v>265415</v>
+        <v>0.31220111</v>
       </c>
       <c r="S7" t="n">
-        <v>65208</v>
+        <v>0.33108031</v>
       </c>
       <c r="T7" t="n">
-        <v>780210</v>
+        <v>0.205517963</v>
       </c>
       <c r="U7" t="n">
-        <v>1450401</v>
+        <v>38183</v>
       </c>
       <c r="V7" t="n">
-        <v>212340</v>
+        <v>34</v>
       </c>
       <c r="W7" t="n">
-        <v>17954</v>
+        <v>0.90936422</v>
       </c>
       <c r="X7" t="n">
-        <v>18468</v>
+        <v>0.09063578</v>
       </c>
       <c r="Y7" t="n">
-        <v>34038599</v>
+        <v>0.333986363</v>
       </c>
       <c r="Z7" t="n">
-        <v>18812</v>
+        <v>0.712592596</v>
       </c>
       <c r="AA7" t="n">
-        <v>175299</v>
+        <v>0.905632059</v>
       </c>
       <c r="AB7" t="n">
-        <v>86775</v>
+        <v>0.094367941</v>
       </c>
       <c r="AC7" t="n">
-        <v>543198</v>
+        <v>0.122601998</v>
       </c>
       <c r="AD7" t="n">
-        <v>197243423</v>
+        <v>0.518931721</v>
       </c>
       <c r="AE7" t="n">
-        <v>366407</v>
+        <v>0.419401916</v>
       </c>
       <c r="AF7" t="n">
-        <v>4970604</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>103079</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>3148370</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>45328</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>153587</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>182708</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>49075</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>313914040</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1675246</v>
+        <v>0.580598084</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" t="n">
-        <v>2547006</v>
+        <v>180474</v>
       </c>
       <c r="C8" t="n">
-        <v>15020419</v>
+        <v>153262</v>
       </c>
       <c r="D8" t="n">
-        <v>2908204</v>
+        <v>153734</v>
       </c>
       <c r="E8" t="n">
-        <v>140153</v>
+        <v>138077</v>
       </c>
       <c r="F8" t="n">
-        <v>9978</v>
+        <v>125716</v>
       </c>
       <c r="G8" t="n">
-        <v>39189528</v>
+        <v>114295</v>
       </c>
       <c r="H8" t="n">
         <v>95990</v>
       </c>
       <c r="I8" t="n">
-        <v>253830</v>
+        <v>91085</v>
       </c>
       <c r="J8" t="n">
-        <v>4623170</v>
+        <v>0.177552166</v>
       </c>
       <c r="K8" t="n">
-        <v>3361879</v>
+        <v>-0.003070238</v>
       </c>
       <c r="L8" t="n">
-        <v>1891014</v>
+        <v>0.113393252</v>
       </c>
       <c r="M8" t="n">
-        <v>1554819</v>
+        <v>0.098324796</v>
       </c>
       <c r="N8" t="n">
-        <v>26683</v>
+        <v>0.099925631</v>
       </c>
       <c r="O8" t="n">
-        <v>2538325</v>
+        <v>0.190696948</v>
       </c>
       <c r="P8" t="n">
-        <v>64192</v>
+        <v>0.053850799</v>
       </c>
       <c r="Q8" t="n">
-        <v>51939916</v>
+        <v>0.632992209</v>
       </c>
       <c r="R8" t="n">
-        <v>241308</v>
+        <v>0.121412299</v>
       </c>
       <c r="S8" t="n">
-        <v>71110</v>
+        <v>0.098616695</v>
       </c>
       <c r="T8" t="n">
-        <v>756898</v>
+        <v>0.146978797</v>
       </c>
       <c r="U8" t="n">
-        <v>1449876</v>
+        <v>41875.75</v>
       </c>
       <c r="V8" t="n">
-        <v>186013</v>
+        <v>27</v>
       </c>
       <c r="W8" t="n">
-        <v>15048</v>
+        <v>0.0634482</v>
       </c>
       <c r="X8" t="n">
-        <v>21478</v>
+        <v>0.9365518</v>
       </c>
       <c r="Y8" t="n">
-        <v>33557922</v>
+        <v>0.752396</v>
       </c>
       <c r="Z8" t="n">
-        <v>11126</v>
+        <v>0.2098862</v>
       </c>
       <c r="AA8" t="n">
-        <v>156239</v>
+        <v>0.1614743</v>
       </c>
       <c r="AB8" t="n">
-        <v>73358</v>
+        <v>0.8385257</v>
       </c>
       <c r="AC8" t="n">
-        <v>506017</v>
+        <v>0.1597803</v>
       </c>
       <c r="AD8" t="n">
-        <v>197084523</v>
+        <v>0.368</v>
       </c>
       <c r="AE8" t="n">
-        <v>351049</v>
+        <v>0.37</v>
       </c>
       <c r="AF8" t="n">
-        <v>4885294</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>108849</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>3071280</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>44742</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>158271</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>189889</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>48194</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>311591919</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1669447</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>2553566</v>
+        <v>269577</v>
       </c>
       <c r="C9" t="n">
-        <v>14728302</v>
+        <v>259554</v>
       </c>
       <c r="D9" t="n">
-        <v>2843391</v>
+        <v>275738</v>
       </c>
       <c r="E9" t="n">
-        <v>128792</v>
+        <v>265412</v>
       </c>
       <c r="F9" t="n">
-        <v>15290</v>
+        <v>271193</v>
       </c>
       <c r="G9" t="n">
-        <v>38874625</v>
+        <v>256956</v>
       </c>
       <c r="H9" t="n">
-        <v>91085</v>
+        <v>253830</v>
       </c>
       <c r="I9" t="n">
         <v>231616</v>
       </c>
       <c r="J9" t="n">
-        <v>4434426</v>
+        <v>0.038616242</v>
       </c>
       <c r="K9" t="n">
-        <v>3137061</v>
+        <v>-0.058693397</v>
       </c>
       <c r="L9" t="n">
-        <v>1873585</v>
+        <v>0.038905551</v>
       </c>
       <c r="M9" t="n">
-        <v>1508871</v>
+        <v>-0.021316922</v>
       </c>
       <c r="N9" t="n">
-        <v>24629</v>
+        <v>0.055406373</v>
       </c>
       <c r="O9" t="n">
-        <v>2555923</v>
+        <v>0.012315329</v>
       </c>
       <c r="P9" t="n">
-        <v>88310</v>
+        <v>0.095908746</v>
       </c>
       <c r="Q9" t="n">
-        <v>50740089</v>
+        <v>0.436907025</v>
       </c>
       <c r="R9" t="n">
-        <v>247595</v>
+        <v>0.219169189</v>
       </c>
       <c r="S9" t="n">
-        <v>63383</v>
+        <v>0.213682333</v>
       </c>
       <c r="T9" t="n">
-        <v>763325</v>
+        <v>0.130241453</v>
       </c>
       <c r="U9" t="n">
-        <v>1423784</v>
+        <v>72484.51</v>
       </c>
       <c r="V9" t="n">
-        <v>191200</v>
+        <v>32</v>
       </c>
       <c r="W9" t="n">
-        <v>16138</v>
+        <v>0.2359654</v>
       </c>
       <c r="X9" t="n">
-        <v>19841</v>
+        <v>0.7640346</v>
       </c>
       <c r="Y9" t="n">
-        <v>32929683</v>
-      </c>
-      <c r="Z9"/>
+        <v>0.5249506</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.6265137</v>
+      </c>
       <c r="AA9" t="n">
-        <v>156146</v>
+        <v>0.4315085</v>
       </c>
       <c r="AB9" t="n">
-        <v>51907</v>
+        <v>0.5684915</v>
       </c>
       <c r="AC9" t="n">
-        <v>507916</v>
+        <v>0.1201174</v>
       </c>
       <c r="AD9" t="n">
-        <v>196929412</v>
+        <v>0.568</v>
       </c>
       <c r="AE9" t="n">
-        <v>363699</v>
+        <v>0.594</v>
       </c>
       <c r="AF9" t="n">
-        <v>4691890</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>109637</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>3049280</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>38596</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>196691</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>166620</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41219</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>309349689</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1548449</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.018636608</v>
+        <v>5562327</v>
       </c>
       <c r="C10" t="n">
-        <v>0.037500452</v>
+        <v>5319873</v>
       </c>
       <c r="D10" t="n">
-        <v>0.073722002</v>
+        <v>5210908</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003627728</v>
+        <v>5097021</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.207663496</v>
+        <v>4802410</v>
       </c>
       <c r="G10" t="n">
-        <v>0.012229905</v>
+        <v>4760337</v>
       </c>
       <c r="H10" t="n">
-        <v>0.177552166</v>
+        <v>4623170</v>
       </c>
       <c r="I10" t="n">
-        <v>0.038616242</v>
+        <v>4434426</v>
       </c>
       <c r="J10" t="n">
         <v>0.045575148</v>
       </c>
       <c r="K10" t="n">
-        <v>0.032406489</v>
+        <v>0.020910943</v>
       </c>
       <c r="L10" t="n">
-        <v>0.046686517</v>
+        <v>0.022343836</v>
       </c>
       <c r="M10" t="n">
-        <v>0.087402566</v>
+        <v>0.061346491</v>
       </c>
       <c r="N10" t="n">
-        <v>0.178915488</v>
+        <v>0.00883824</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03548616</v>
+        <v>0.029669469</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04093546</v>
+        <v>0.042563344</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.025216852</v>
+        <v>0.558026555</v>
       </c>
       <c r="R10" t="n">
-        <v>0.061670091</v>
+        <v>0.194181165</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.004861728</v>
+        <v>0.16591914</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.024415381</v>
+        <v>0.08187314</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02666384</v>
+        <v>49703.75</v>
       </c>
       <c r="V10" t="n">
-        <v>0.034982523</v>
+        <v>29</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.139226625</v>
+        <v>0.1310918</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.096304312</v>
+        <v>0.8689082</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.011375598</v>
+        <v>0.5476704</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.068626606</v>
+        <v>0.3352944</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.071922135</v>
+        <v>0.4104115</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.103719797</v>
+        <v>0.5895885</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.02052565</v>
+        <v>0.3055431</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.000984</v>
+        <v>0.4028678</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.083784459</v>
+        <v>0.325</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.025354134</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>-0.121474855</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0.075354496</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>-0.145098642</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>-0.00655884</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0.042615318</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0.038077247</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0.008020558</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0.012986984</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>0.030474552</v>
+        <v>4180186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.016392362</v>
+        <v>4048973</v>
       </c>
       <c r="D11" t="n">
-        <v>0.030662519</v>
+        <v>3973723</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.006540385</v>
+        <v>3787716</v>
       </c>
       <c r="F11" t="n">
-        <v>0.42643026</v>
+        <v>3630946</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00486769</v>
+        <v>3507072</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.003070238</v>
+        <v>3361879</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.058693397</v>
+        <v>3137061</v>
       </c>
       <c r="J11" t="n">
-        <v>0.020910943</v>
+        <v>0.032406489</v>
       </c>
       <c r="K11" t="n">
         <v>0.018936901</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05035127</v>
+        <v>0.049107958</v>
       </c>
       <c r="M11" t="n">
-        <v>0.021901162</v>
+        <v>0.043176076</v>
       </c>
       <c r="N11" t="n">
-        <v>0.017139674</v>
+        <v>0.035321202</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.012732133</v>
+        <v>0.04318805</v>
       </c>
       <c r="P11" t="n">
-        <v>0.049361962</v>
+        <v>0.071665167</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.015976265</v>
+        <v>0.290406621</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.021724946</v>
+        <v>0.1288211</v>
       </c>
       <c r="S11" t="n">
-        <v>0.024639777</v>
+        <v>0.157394147</v>
       </c>
       <c r="T11" t="n">
-        <v>0.042723917</v>
+        <v>0.423378132</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.014767717</v>
+        <v>91108.13</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.041237836</v>
+        <v>38</v>
       </c>
       <c r="W11" t="n">
-        <v>0.113926068</v>
+        <v>0.1969762</v>
       </c>
       <c r="X11" t="n">
-        <v>0.598740241</v>
+        <v>0.8030238</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.012808559</v>
+        <v>0.56331</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.378699632</v>
+        <v>0.5392142</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01355379</v>
+        <v>0.3058777</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.156943236</v>
+        <v>0.6941223</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.073953141</v>
+        <v>0.0870009</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.000279</v>
+        <v>0.706</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.04596813</v>
+        <v>0.679</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.014464263</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>-0.003449454</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0.016683712</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>-0.017494143</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0.037086358</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.040961975</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>-0.050175105</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0.005316098</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0.03722407</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.001716176</v>
+        <v>2315863</v>
       </c>
       <c r="C12" t="n">
-        <v>0.035166202</v>
+        <v>2212566</v>
       </c>
       <c r="D12" t="n">
-        <v>0.059840128</v>
+        <v>2106501</v>
       </c>
       <c r="E12" t="n">
-        <v>0.104474814</v>
+        <v>2046805</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.331246443</v>
+        <v>2013155</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007831063</v>
+        <v>1957557</v>
       </c>
       <c r="H12" t="n">
-        <v>0.113393252</v>
+        <v>1891014</v>
       </c>
       <c r="I12" t="n">
-        <v>0.038905551</v>
+        <v>1873585</v>
       </c>
       <c r="J12" t="n">
-        <v>0.022343836</v>
+        <v>0.046686517</v>
       </c>
       <c r="K12" t="n">
-        <v>0.049107958</v>
+        <v>0.05035127</v>
       </c>
       <c r="L12" t="n">
         <v>0.029165455</v>
       </c>
       <c r="M12" t="n">
-        <v>0.064045641</v>
+        <v>0.016715057</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.101895456</v>
+        <v>0.028401727</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02787163</v>
+        <v>0.035189057</v>
       </c>
       <c r="P12" t="n">
-        <v>0.063825175</v>
+        <v>0.009302487</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.022009444</v>
+        <v>0.332029944</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.010932811</v>
+        <v>0.245194527</v>
       </c>
       <c r="S12" t="n">
-        <v>0.04576518</v>
+        <v>0.219623376</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.002092072</v>
+        <v>0.203152153</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.010899533</v>
+        <v>54190.74</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.003971007</v>
+        <v>40</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.087613879</v>
+        <v>0.2075345</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.078595659</v>
+        <v>0.7924655</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.013490747</v>
+        <v>0.5030666</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.139114863</v>
+        <v>0.5799797</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.020648935</v>
+        <v>0.4319587</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.064418076</v>
+        <v>0.5680413</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.003962998</v>
+        <v>0.1681238</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.000634</v>
+        <v>0.5306361</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.069137897</v>
+        <v>0.544</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.020130297</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0.050145247</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0.024924658</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0.312895305</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0.039324492</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.001043364</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.335932536</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0.008034211</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0.01441245</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>0.031963036</v>
+        <v>2081419</v>
       </c>
       <c r="C13" t="n">
-        <v>0.042145575</v>
+        <v>1914120</v>
       </c>
       <c r="D13" t="n">
-        <v>0.094550374</v>
+        <v>1873097</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.004076324</v>
+        <v>1760354</v>
       </c>
       <c r="F13" t="n">
-        <v>0.083638856</v>
+        <v>1757961</v>
       </c>
       <c r="G13" t="n">
-        <v>0.011515587</v>
+        <v>1656960</v>
       </c>
       <c r="H13" t="n">
-        <v>0.098324796</v>
+        <v>1554819</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.021316922</v>
+        <v>1508871</v>
       </c>
       <c r="J13" t="n">
-        <v>0.061346491</v>
+        <v>0.087402566</v>
       </c>
       <c r="K13" t="n">
-        <v>0.043176076</v>
+        <v>0.021901162</v>
       </c>
       <c r="L13" t="n">
-        <v>0.016715057</v>
+        <v>0.064045641</v>
       </c>
       <c r="M13" t="n">
         <v>0.001361236</v>
       </c>
       <c r="N13" t="n">
-        <v>0.046768131</v>
+        <v>0.060955605</v>
       </c>
       <c r="O13" t="n">
-        <v>0.039897831</v>
+        <v>0.065693177</v>
       </c>
       <c r="P13" t="n">
-        <v>0.159547561</v>
+        <v>0.030451907</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.023951212</v>
+        <v>0.455566846</v>
       </c>
       <c r="R13" t="n">
-        <v>0.056409786</v>
+        <v>0.204922271</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.011352938</v>
+        <v>0.219828628</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.044540753</v>
+        <v>0.119682256</v>
       </c>
       <c r="U13" t="n">
-        <v>0.020728028</v>
+        <v>47299.17</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.002549267</v>
+        <v>29</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.101610797</v>
+        <v>0.1180539</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.027234415</v>
+        <v>0.8819461</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.021236602</v>
+        <v>0.4784155</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.506242293</v>
+        <v>0.4869313</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.00397796</v>
+        <v>0.4549677</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.356326899</v>
+        <v>0.5450323</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.059731812</v>
+        <v>0.1429915</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0000858</v>
+        <v>0.429151</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.020637038</v>
+        <v>0.27</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.025034307</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0.086026512</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0.018655344</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>-0.143266963</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0.02104467</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.055297015</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>-0.138571002</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0.008630079</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0.012632033</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.016529712</v>
+        <v>36590</v>
       </c>
       <c r="C14" t="n">
-        <v>0.029352263</v>
+        <v>31037</v>
       </c>
       <c r="D14" t="n">
-        <v>0.046006806</v>
+        <v>30514</v>
       </c>
       <c r="E14" t="n">
-        <v>0.095981229</v>
+        <v>33976</v>
       </c>
       <c r="F14" t="n">
-        <v>0.624638165</v>
+        <v>32458</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007476263</v>
+        <v>35530</v>
       </c>
       <c r="H14" t="n">
-        <v>0.099925631</v>
+        <v>26683</v>
       </c>
       <c r="I14" t="n">
-        <v>0.055406373</v>
+        <v>24629</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00883824</v>
+        <v>0.178915488</v>
       </c>
       <c r="K14" t="n">
-        <v>0.035321202</v>
+        <v>0.017139674</v>
       </c>
       <c r="L14" t="n">
-        <v>0.028401727</v>
+        <v>-0.101895456</v>
       </c>
       <c r="M14" t="n">
-        <v>0.060955605</v>
+        <v>0.046768131</v>
       </c>
       <c r="N14" t="n">
         <v>-0.086462145</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002351831</v>
+        <v>0.33155942</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.124872831</v>
+        <v>0.083397621</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.019361316</v>
+        <v>0.319687924</v>
       </c>
       <c r="R14" t="n">
-        <v>0.027918543</v>
+        <v>0.252661171</v>
       </c>
       <c r="S14" t="n">
-        <v>0.107655502</v>
+        <v>0.310022426</v>
       </c>
       <c r="T14" t="n">
-        <v>0.018239961</v>
+        <v>0.117628478</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.00262617</v>
+        <v>80895.12</v>
       </c>
       <c r="V14" t="n">
-        <v>0.014203636</v>
+        <v>37</v>
       </c>
       <c r="W14" t="n">
-        <v>0.279380639</v>
+        <v>0.1918115</v>
       </c>
       <c r="X14" t="n">
-        <v>0.361923327</v>
+        <v>0.8081885</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.016084358</v>
+        <v>0.2948469</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.310227514</v>
+        <v>0.5597017</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.023902019</v>
+        <v>0.3289962</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.073373668</v>
+        <v>0.6710038</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.032120884</v>
+        <v>0.1076503</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.000755</v>
+        <v>0.66</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.207291345</v>
+        <v>0.671</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.033699124</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0.020915996</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0.035466289</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0.038188316</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>-0.018621368</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0.009085535</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>-0.180927152</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0.007055431</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0.010454584</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B15" t="n">
-        <v>0.006477802</v>
+        <v>2911668</v>
       </c>
       <c r="C15" t="n">
-        <v>0.035625571</v>
+        <v>2811885</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0484825</v>
+        <v>2848148</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04608535</v>
+        <v>2770918</v>
       </c>
       <c r="F15" t="n">
-        <v>0.800360794</v>
+        <v>2664606</v>
       </c>
       <c r="G15" t="n">
-        <v>0.011064435</v>
+        <v>2658354</v>
       </c>
       <c r="H15" t="n">
-        <v>0.190696948</v>
+        <v>2538325</v>
       </c>
       <c r="I15" t="n">
-        <v>0.012315329</v>
+        <v>2555923</v>
       </c>
       <c r="J15" t="n">
-        <v>0.029669469</v>
+        <v>0.03548616</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04318805</v>
+        <v>-0.012732133</v>
       </c>
       <c r="L15" t="n">
-        <v>0.035189057</v>
+        <v>0.02787163</v>
       </c>
       <c r="M15" t="n">
-        <v>0.065693177</v>
+        <v>0.039897831</v>
       </c>
       <c r="N15" t="n">
-        <v>0.33155942</v>
+        <v>0.002351831</v>
       </c>
       <c r="O15" t="n">
         <v>0.047286695</v>
       </c>
       <c r="P15" t="n">
-        <v>0.133131854</v>
+        <v>-0.006885184</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.019659273</v>
+        <v>0.208106962</v>
       </c>
       <c r="R15" t="n">
-        <v>0.099901371</v>
+        <v>0.137160142</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.082998172</v>
+        <v>0.273735732</v>
       </c>
       <c r="T15" t="n">
-        <v>0.030799394</v>
+        <v>0.380997164</v>
       </c>
       <c r="U15" t="n">
-        <v>0.000362</v>
+        <v>104963.5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.141533119</v>
+        <v>41</v>
       </c>
       <c r="W15" t="n">
-        <v>0.193115364</v>
+        <v>0.3469892</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.140143403</v>
+        <v>0.6530108</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.014323801</v>
+        <v>0.3321828</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.690814309</v>
+        <v>0.6501244</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.121992588</v>
+        <v>0.346057</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.182897571</v>
+        <v>0.653943</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.073477769</v>
+        <v>0.0761472</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.000806</v>
+        <v>0.774</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.043748878</v>
+        <v>0.659</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.017462613</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>-0.053009215</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0.025100284</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0.013097313</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>-0.029594809</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>-0.03781683</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0.018280284</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0.007452443</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0.003473605</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.002568957</v>
+        <v>85771</v>
       </c>
       <c r="C16" t="n">
-        <v>0.019833719</v>
+        <v>82398</v>
       </c>
       <c r="D16" t="n">
-        <v>0.022794262</v>
+        <v>78522</v>
       </c>
       <c r="E16" t="n">
-        <v>0.088212001</v>
+        <v>73811</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.347416612</v>
+        <v>63655</v>
       </c>
       <c r="G16" t="n">
-        <v>0.008100477</v>
+        <v>72738</v>
       </c>
       <c r="H16" t="n">
-        <v>0.053850799</v>
+        <v>64192</v>
       </c>
       <c r="I16" t="n">
-        <v>0.095908746</v>
+        <v>88310</v>
       </c>
       <c r="J16" t="n">
-        <v>0.042563344</v>
+        <v>0.04093546</v>
       </c>
       <c r="K16" t="n">
-        <v>0.071665167</v>
+        <v>0.049361962</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009302487</v>
+        <v>0.063825175</v>
       </c>
       <c r="M16" t="n">
-        <v>0.030451907</v>
+        <v>0.159547561</v>
       </c>
       <c r="N16" t="n">
-        <v>0.083397621</v>
+        <v>-0.124872831</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.006885184</v>
+        <v>0.133131854</v>
       </c>
       <c r="P16" t="n">
         <v>-0.273106103</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.023646529</v>
+        <v>0.283259224</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.025392274</v>
+        <v>0.268624231</v>
       </c>
       <c r="S16" t="n">
-        <v>0.12190966</v>
+        <v>0.302380857</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.008419743</v>
+        <v>0.145735689</v>
       </c>
       <c r="U16" t="n">
-        <v>0.018325813</v>
+        <v>80354.44</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.027128661</v>
+        <v>34</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.067542446</v>
+        <v>0.7058261</v>
       </c>
       <c r="X16" t="n">
-        <v>0.082505922</v>
+        <v>0.2941739</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.019078198</v>
-      </c>
-      <c r="Z16"/>
+        <v>0.2129647</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.7599111</v>
+      </c>
       <c r="AA16" t="n">
-        <v>0.000596</v>
+        <v>0.9301836</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.413258327</v>
+        <v>0.0698164</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.003738807</v>
+        <v>0.11358</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.000788</v>
+        <v>0.716</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.034781509</v>
+        <v>0.49</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.041220915</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>-0.007187355</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0.007214818</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0.159239299</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>-0.195331764</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0.139653103</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0.169218079</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0.007248205</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0.078141418</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>0.202914154</v>
+        <v>58846134</v>
       </c>
       <c r="C17" t="n">
-        <v>0.134703381</v>
+        <v>57398719</v>
       </c>
       <c r="D17" t="n">
-        <v>0.259930499</v>
+        <v>56496122</v>
       </c>
       <c r="E17" t="n">
-        <v>0.352059053</v>
+        <v>55279452</v>
       </c>
       <c r="F17" t="n">
-        <v>0.661584653</v>
+        <v>53986412</v>
       </c>
       <c r="G17" t="n">
-        <v>0.151200617</v>
+        <v>52961017</v>
       </c>
       <c r="H17" t="n">
-        <v>0.632992209</v>
+        <v>51939916</v>
       </c>
       <c r="I17" t="n">
-        <v>0.436907025</v>
+        <v>50740089</v>
       </c>
       <c r="J17" t="n">
-        <v>0.558026555</v>
+        <v>0.025216852</v>
       </c>
       <c r="K17" t="n">
-        <v>0.290406621</v>
+        <v>0.015976265</v>
       </c>
       <c r="L17" t="n">
-        <v>0.332029944</v>
+        <v>0.022009444</v>
       </c>
       <c r="M17" t="n">
-        <v>0.455566846</v>
+        <v>0.023951212</v>
       </c>
       <c r="N17" t="n">
-        <v>0.319687924</v>
+        <v>0.019361316</v>
       </c>
       <c r="O17" t="n">
-        <v>0.208106962</v>
+        <v>0.019659273</v>
       </c>
       <c r="P17" t="n">
-        <v>0.283259224</v>
+        <v>0.023646529</v>
       </c>
       <c r="Q17" t="n">
         <v>0.332969368</v>
       </c>
       <c r="R17" t="n">
-        <v>0.481476377</v>
+        <v>0.274243715</v>
       </c>
       <c r="S17" t="n">
-        <v>0.217313934</v>
+        <v>0.240801798</v>
       </c>
       <c r="T17" t="n">
-        <v>0.123568454</v>
+        <v>0.151985119</v>
       </c>
       <c r="U17" t="n">
-        <v>0.206875458</v>
+        <v>46627</v>
       </c>
       <c r="V17" t="n">
-        <v>0.39801537</v>
+        <v>29</v>
       </c>
       <c r="W17" t="n">
-        <v>0.184565818</v>
+        <v>0.271679284</v>
       </c>
       <c r="X17" t="n">
-        <v>0.539628335</v>
+        <v>0.728320716</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.292996864</v>
+        <v>0.425924904</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.297309268</v>
+        <v>0.470913141</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.266226095</v>
+        <v>0.656434404</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.429233447</v>
+        <v>0.343565596</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.131289763</v>
+        <v>0.250710904</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.076687018</v>
+        <v>0.438944823</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.332515737</v>
+        <v>0.463640334</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.423980846</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0.316083293</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0.307869376</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0.208817444</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0.143774293</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0.262793316</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0.369898166</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0.12686413</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0.384342879</v>
+        <v>0.536359666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B18" t="n">
-        <v>0.315423881</v>
+        <v>296069</v>
       </c>
       <c r="C18" t="n">
-        <v>0.150315097</v>
+        <v>278871</v>
       </c>
       <c r="D18" t="n">
-        <v>0.074896828</v>
+        <v>285064</v>
       </c>
       <c r="E18" t="n">
-        <v>0.144412632</v>
+        <v>288215</v>
       </c>
       <c r="F18" t="n">
-        <v>0.173399361</v>
+        <v>272825</v>
       </c>
       <c r="G18" t="n">
-        <v>0.31220111</v>
+        <v>265415</v>
       </c>
       <c r="H18" t="n">
-        <v>0.121412299</v>
+        <v>241308</v>
       </c>
       <c r="I18" t="n">
-        <v>0.219169189</v>
+        <v>247595</v>
       </c>
       <c r="J18" t="n">
-        <v>0.194181165</v>
+        <v>0.061670091</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1288211</v>
+        <v>-0.021724946</v>
       </c>
       <c r="L18" t="n">
-        <v>0.245194527</v>
+        <v>-0.010932811</v>
       </c>
       <c r="M18" t="n">
-        <v>0.204922271</v>
+        <v>0.056409786</v>
       </c>
       <c r="N18" t="n">
-        <v>0.252661171</v>
+        <v>0.027918543</v>
       </c>
       <c r="O18" t="n">
-        <v>0.137160142</v>
+        <v>0.099901371</v>
       </c>
       <c r="P18" t="n">
-        <v>0.268624231</v>
+        <v>-0.025392274</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.274243715</v>
+        <v>0.481476377</v>
       </c>
       <c r="R18" t="n">
         <v>0.182561531</v>
       </c>
       <c r="S18" t="n">
-        <v>0.170107055</v>
+        <v>0.230456599</v>
       </c>
       <c r="T18" t="n">
-        <v>0.175393054</v>
+        <v>0.105505493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.152704108</v>
+        <v>66888.73</v>
       </c>
       <c r="V18" t="n">
-        <v>0.249559301</v>
+        <v>23</v>
       </c>
       <c r="W18" t="n">
-        <v>0.125907743</v>
+        <v>0.1326397</v>
       </c>
       <c r="X18" t="n">
-        <v>0.303248094</v>
+        <v>0.8673603</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.224053923</v>
+        <v>0.4253482</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.095559739</v>
+        <v>0.5533439</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.307281412</v>
+        <v>0.6322089</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.137629887</v>
+        <v>0.3677911</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.356876354</v>
+        <v>0.0983452</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.27680407</v>
+        <v>0.534</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.120168615</v>
+        <v>0.55</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.222844028</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0.297146161</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0.199085063</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0.133785044</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0.077304869</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0.166419956</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0.253747873</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0.27323791</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0.178630079</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B19" t="n">
-        <v>0.338280648</v>
+        <v>76144</v>
       </c>
       <c r="C19" t="n">
-        <v>0.187706534</v>
+        <v>76516</v>
       </c>
       <c r="D19" t="n">
-        <v>0.106952543</v>
+        <v>74676</v>
       </c>
       <c r="E19" t="n">
-        <v>0.17041365</v>
+        <v>71408</v>
       </c>
       <c r="F19" t="n">
-        <v>0.096077361</v>
+        <v>72228</v>
       </c>
       <c r="G19" t="n">
-        <v>0.33108031</v>
+        <v>65208</v>
       </c>
       <c r="H19" t="n">
-        <v>0.098616695</v>
+        <v>71110</v>
       </c>
       <c r="I19" t="n">
-        <v>0.213682333</v>
+        <v>63383</v>
       </c>
       <c r="J19" t="n">
-        <v>0.16591914</v>
+        <v>-0.004861728</v>
       </c>
       <c r="K19" t="n">
-        <v>0.157394147</v>
+        <v>0.024639777</v>
       </c>
       <c r="L19" t="n">
-        <v>0.219623376</v>
+        <v>0.04576518</v>
       </c>
       <c r="M19" t="n">
-        <v>0.219828628</v>
+        <v>-0.011352938</v>
       </c>
       <c r="N19" t="n">
-        <v>0.310022426</v>
+        <v>0.107655502</v>
       </c>
       <c r="O19" t="n">
-        <v>0.273735732</v>
+        <v>-0.082998172</v>
       </c>
       <c r="P19" t="n">
-        <v>0.302380857</v>
+        <v>0.12190966</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.240801798</v>
+        <v>0.217313934</v>
       </c>
       <c r="R19" t="n">
-        <v>0.230456599</v>
+        <v>0.170107055</v>
       </c>
       <c r="S19" t="n">
         <v>0.254655202</v>
       </c>
       <c r="T19" t="n">
-        <v>0.256917976</v>
+        <v>0.357923808</v>
       </c>
       <c r="U19" t="n">
-        <v>0.207976289</v>
+        <v>78206.38</v>
       </c>
       <c r="V19" t="n">
-        <v>0.232500792</v>
+        <v>38</v>
       </c>
       <c r="W19" t="n">
-        <v>0.258617163</v>
+        <v>0.2433063</v>
       </c>
       <c r="X19" t="n">
-        <v>0.132544473</v>
+        <v>0.7566937</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.25139442</v>
+        <v>0.4208488</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.210718636</v>
+        <v>0.3687111</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.289116403</v>
+        <v>0.25278</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.13906157</v>
+        <v>0.74722</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.343077717</v>
+        <v>0.132103</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.301189074</v>
+        <v>0.692</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.176414119</v>
+        <v>0.564</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.234116577</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0.284521406</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0.249888951</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0.203315068</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0.142936335</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0.20408844</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0.281326815</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0.29062208</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0.217030504</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B20" t="n">
-        <v>0.143381317</v>
+        <v>770546</v>
       </c>
       <c r="C20" t="n">
-        <v>0.527274988</v>
+        <v>789830</v>
       </c>
       <c r="D20" t="n">
-        <v>0.558220131</v>
+        <v>757468</v>
       </c>
       <c r="E20" t="n">
-        <v>0.333114666</v>
+        <v>759056</v>
       </c>
       <c r="F20" t="n">
-        <v>0.068938626</v>
+        <v>794441</v>
       </c>
       <c r="G20" t="n">
-        <v>0.205517963</v>
+        <v>780210</v>
       </c>
       <c r="H20" t="n">
-        <v>0.146978797</v>
+        <v>756898</v>
       </c>
       <c r="I20" t="n">
-        <v>0.130241453</v>
+        <v>763325</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08187314</v>
+        <v>-0.024415381</v>
       </c>
       <c r="K20" t="n">
-        <v>0.423378132</v>
+        <v>0.042723917</v>
       </c>
       <c r="L20" t="n">
-        <v>0.203152153</v>
+        <v>-0.002092072</v>
       </c>
       <c r="M20" t="n">
-        <v>0.119682256</v>
+        <v>-0.044540753</v>
       </c>
       <c r="N20" t="n">
-        <v>0.117628478</v>
+        <v>0.018239961</v>
       </c>
       <c r="O20" t="n">
-        <v>0.380997164</v>
+        <v>0.030799394</v>
       </c>
       <c r="P20" t="n">
-        <v>0.145735689</v>
+        <v>-0.008419743</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.151985119</v>
+        <v>0.123568454</v>
       </c>
       <c r="R20" t="n">
-        <v>0.105505493</v>
+        <v>0.175393054</v>
       </c>
       <c r="S20" t="n">
-        <v>0.357923808</v>
+        <v>0.256917976</v>
       </c>
       <c r="T20" t="n">
         <v>0.444120515</v>
       </c>
       <c r="U20" t="n">
-        <v>0.432444145</v>
+        <v>95413.88</v>
       </c>
       <c r="V20" t="n">
-        <v>0.119924537</v>
+        <v>50</v>
       </c>
       <c r="W20" t="n">
-        <v>0.430909277</v>
+        <v>0.5627993</v>
       </c>
       <c r="X20" t="n">
-        <v>0.024579098</v>
+        <v>0.4372007</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.231554793</v>
+        <v>0.5250789</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.396412357</v>
+        <v>0.6454223</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.137376089</v>
+        <v>0.5875261</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.294075096</v>
+        <v>0.4124739</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.168756166</v>
+        <v>0.0451016</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.345319838</v>
+        <v>0.838</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.370901529</v>
+        <v>0.676</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.119058549</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0.10224914</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0.24315661</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0.454082445</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0.635984504</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0.366698287</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0.095027147</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0.30927588</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0.219996538</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B21" t="n">
-        <v>40315</v>
+        <v>1477282</v>
       </c>
       <c r="C21" t="n">
-        <v>80398</v>
+        <v>1438915</v>
       </c>
       <c r="D21" t="n">
-        <v>121342.7</v>
+        <v>1460483</v>
       </c>
       <c r="E21" t="n">
-        <v>53441.34</v>
+        <v>1476577</v>
       </c>
       <c r="F21" t="n">
-        <v>48031.48</v>
+        <v>1446592</v>
       </c>
       <c r="G21" t="n">
-        <v>38183</v>
+        <v>1450401</v>
       </c>
       <c r="H21" t="n">
-        <v>41875.75</v>
+        <v>1449876</v>
       </c>
       <c r="I21" t="n">
-        <v>72484.51</v>
+        <v>1423784</v>
       </c>
       <c r="J21" t="n">
-        <v>49703.75</v>
+        <v>0.02666384</v>
       </c>
       <c r="K21" t="n">
-        <v>91108.13</v>
+        <v>-0.014767717</v>
       </c>
       <c r="L21" t="n">
-        <v>54190.74</v>
+        <v>-0.010899533</v>
       </c>
       <c r="M21" t="n">
-        <v>47299.17</v>
+        <v>0.020728028</v>
       </c>
       <c r="N21" t="n">
-        <v>80895.12</v>
+        <v>-0.00262617</v>
       </c>
       <c r="O21" t="n">
-        <v>104963.5</v>
+        <v>0.000362</v>
       </c>
       <c r="P21" t="n">
-        <v>80354.44</v>
+        <v>0.018325813</v>
       </c>
       <c r="Q21" t="n">
-        <v>46627</v>
+        <v>0.206875458</v>
       </c>
       <c r="R21" t="n">
-        <v>66888.73</v>
+        <v>0.152704108</v>
       </c>
       <c r="S21" t="n">
-        <v>78206.38</v>
+        <v>0.207976289</v>
       </c>
       <c r="T21" t="n">
-        <v>95413.88</v>
+        <v>0.432444145</v>
       </c>
       <c r="U21" t="n">
         <v>82323.97</v>
       </c>
       <c r="V21" t="n">
-        <v>72805.61</v>
+        <v>39</v>
       </c>
       <c r="W21" t="n">
-        <v>72484.51</v>
+        <v>0.2472654</v>
       </c>
       <c r="X21" t="n">
-        <v>45440.64</v>
+        <v>0.7527346</v>
       </c>
       <c r="Y21" t="n">
-        <v>51162.44</v>
+        <v>0.5468437</v>
       </c>
       <c r="Z21" t="n">
-        <v>53459.63</v>
+        <v>0.5817042</v>
       </c>
       <c r="AA21" t="n">
-        <v>75178.09</v>
+        <v>0.2811768</v>
       </c>
       <c r="AB21" t="n">
-        <v>52581.83</v>
+        <v>0.7188232</v>
       </c>
       <c r="AC21" t="n">
-        <v>57372</v>
+        <v>0.1392951</v>
       </c>
       <c r="AD21" t="n">
-        <v>63256</v>
+        <v>0.693</v>
       </c>
       <c r="AE21" t="n">
-        <v>78207.98</v>
+        <v>0.563</v>
       </c>
       <c r="AF21" t="n">
-        <v>49703.31</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>69974.28</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>64201.05</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>92614.47</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>108050.7</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>82323.97</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>73917.91</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>57652</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>74827.98</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B22" t="n">
-        <v>32</v>
+        <v>212307</v>
       </c>
       <c r="C22" t="n">
-        <v>37</v>
+        <v>205131</v>
       </c>
       <c r="D22" t="n">
-        <v>33</v>
+        <v>213954</v>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>214807</v>
       </c>
       <c r="F22" t="n">
-        <v>29</v>
+        <v>215356</v>
       </c>
       <c r="G22" t="n">
-        <v>34</v>
+        <v>212340</v>
       </c>
       <c r="H22" t="n">
-        <v>27</v>
+        <v>186013</v>
       </c>
       <c r="I22" t="n">
-        <v>32</v>
+        <v>191200</v>
       </c>
       <c r="J22" t="n">
-        <v>29</v>
+        <v>0.034982523</v>
       </c>
       <c r="K22" t="n">
-        <v>38</v>
+        <v>-0.041237836</v>
       </c>
       <c r="L22" t="n">
-        <v>40</v>
+        <v>-0.003971007</v>
       </c>
       <c r="M22" t="n">
-        <v>29</v>
+        <v>-0.002549267</v>
       </c>
       <c r="N22" t="n">
-        <v>37</v>
+        <v>0.014203636</v>
       </c>
       <c r="O22" t="n">
-        <v>41</v>
+        <v>0.141533119</v>
       </c>
       <c r="P22" t="n">
-        <v>34</v>
+        <v>-0.027128661</v>
       </c>
       <c r="Q22" t="n">
-        <v>29</v>
+        <v>0.39801537</v>
       </c>
       <c r="R22" t="n">
-        <v>23</v>
+        <v>0.249559301</v>
       </c>
       <c r="S22" t="n">
-        <v>38</v>
+        <v>0.232500792</v>
       </c>
       <c r="T22" t="n">
-        <v>50</v>
+        <v>0.119924537</v>
       </c>
       <c r="U22" t="n">
-        <v>39</v>
+        <v>72805.61</v>
       </c>
       <c r="V22" t="n">
         <v>35</v>
       </c>
       <c r="W22" t="n">
-        <v>31</v>
+        <v>0.2262967</v>
       </c>
       <c r="X22" t="n">
-        <v>22</v>
+        <v>0.7737033</v>
       </c>
       <c r="Y22" t="n">
-        <v>38</v>
+        <v>0.4796696</v>
       </c>
       <c r="Z22" t="n">
-        <v>30</v>
+        <v>0.6302599</v>
       </c>
       <c r="AA22" t="n">
-        <v>35</v>
+        <v>0.42106</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>0.57894</v>
       </c>
       <c r="AC22" t="n">
-        <v>31</v>
+        <v>0.1223037</v>
       </c>
       <c r="AD22" t="n">
-        <v>43</v>
+        <v>0.634</v>
       </c>
       <c r="AE22" t="n">
-        <v>31</v>
+        <v>0.649</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>38</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B23" t="n">
-        <v>0.730877595</v>
+        <v>18053</v>
       </c>
       <c r="C23" t="n">
-        <v>0.249603197</v>
+        <v>20973</v>
       </c>
       <c r="D23" t="n">
-        <v>0.229127</v>
+        <v>18828</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0795991</v>
+        <v>20636</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0477075</v>
+        <v>22970</v>
       </c>
       <c r="G23" t="n">
-        <v>0.90936422</v>
+        <v>17954</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0634482</v>
+        <v>15048</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2359654</v>
+        <v>16138</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1310918</v>
+        <v>-0.139226625</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1969762</v>
+        <v>0.113926068</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2075345</v>
+        <v>-0.087613879</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1180539</v>
+        <v>-0.101610797</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1918115</v>
+        <v>0.279380639</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3469892</v>
+        <v>0.193115364</v>
       </c>
       <c r="P23" t="n">
-        <v>0.7058261</v>
+        <v>-0.067542446</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.271679284</v>
+        <v>0.184565818</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1326397</v>
+        <v>0.125907743</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2433063</v>
+        <v>0.258617163</v>
       </c>
       <c r="T23" t="n">
-        <v>0.5627993</v>
+        <v>0.430909277</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2472654</v>
+        <v>72484.51</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2262967</v>
+        <v>31</v>
       </c>
       <c r="W23" t="n">
         <v>0.2643452</v>
       </c>
       <c r="X23" t="n">
-        <v>0.1879431</v>
+        <v>0.7356548</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.8212904</v>
+        <v>0.3705162</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.134362</v>
+        <v>0.2992767</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.8480359</v>
+        <v>0.176311</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.065756</v>
+        <v>0.823689</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.593606159</v>
+        <v>0.1318565</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.94549614</v>
+        <v>0.746</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.1494071</v>
+        <v>0.461</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.396582</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0.5197871</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0.1696343</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0.2975902</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0.1600202</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0.2531912</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0.3735993</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0.764731542</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0.1470458</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B24" t="n">
-        <v>0.269122405</v>
+        <v>32571</v>
       </c>
       <c r="C24" t="n">
-        <v>0.750396803</v>
+        <v>36042</v>
       </c>
       <c r="D24" t="n">
-        <v>0.770873</v>
+        <v>22544</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9204009</v>
+        <v>24467</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9522925</v>
+        <v>25152</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09063578</v>
+        <v>18468</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9365518</v>
+        <v>21478</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7640346</v>
+        <v>19841</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8689082</v>
+        <v>-0.096304312</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8030238</v>
+        <v>0.598740241</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7924655</v>
+        <v>-0.078595659</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8819461</v>
+        <v>-0.027234415</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8081885</v>
+        <v>0.361923327</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6530108</v>
+        <v>-0.140143403</v>
       </c>
       <c r="P24" t="n">
-        <v>0.2941739</v>
+        <v>0.082505922</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.728320716</v>
+        <v>0.539628335</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8673603</v>
+        <v>0.303248094</v>
       </c>
       <c r="S24" t="n">
-        <v>0.7566937</v>
+        <v>0.132544473</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4372007</v>
+        <v>0.024579098</v>
       </c>
       <c r="U24" t="n">
-        <v>0.7527346</v>
+        <v>45440.64</v>
       </c>
       <c r="V24" t="n">
-        <v>0.7737033</v>
+        <v>22</v>
       </c>
       <c r="W24" t="n">
-        <v>0.7356548</v>
+        <v>0.1879431</v>
       </c>
       <c r="X24" t="n">
         <v>0.8120569</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.1787096</v>
+        <v>0.5335538</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.865638</v>
+        <v>0.1041886</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.1519641</v>
+        <v>0.4028286</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.934244</v>
+        <v>0.5971714</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.406393841</v>
+        <v>0.2191115</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.05450386</v>
+        <v>0.393</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.8505929</v>
+        <v>0.0937</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.603418</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0.4802129</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0.8303657</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0.7024098</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0.8399798</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0.7468088</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0.6264007</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0.213252541</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0.8529542</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B25" t="n">
-        <v>0.27185608</v>
+        <v>36668018</v>
       </c>
       <c r="C25" t="n">
-        <v>0.451078478</v>
+        <v>36255589</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2588434</v>
+        <v>35797080</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4951038</v>
+        <v>35320579</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7392557</v>
+        <v>34586088</v>
       </c>
       <c r="G25" t="n">
-        <v>0.333986363</v>
+        <v>34038599</v>
       </c>
       <c r="H25" t="n">
-        <v>0.752396</v>
+        <v>33557922</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5249506</v>
+        <v>32929683</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5476704</v>
+        <v>0.011375598</v>
       </c>
       <c r="K25" t="n">
-        <v>0.56331</v>
+        <v>0.012808559</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5030666</v>
+        <v>0.013490747</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4784155</v>
+        <v>0.021236602</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2948469</v>
+        <v>0.016084358</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3321828</v>
+        <v>0.014323801</v>
       </c>
       <c r="P25" t="n">
-        <v>0.2129647</v>
+        <v>0.019078198</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.425924904</v>
+        <v>0.292996864</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4253482</v>
+        <v>0.224053923</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4208488</v>
+        <v>0.25139442</v>
       </c>
       <c r="T25" t="n">
-        <v>0.5250789</v>
+        <v>0.231554793</v>
       </c>
       <c r="U25" t="n">
-        <v>0.5468437</v>
+        <v>51162.44</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4796696</v>
+        <v>38</v>
       </c>
       <c r="W25" t="n">
-        <v>0.3705162</v>
+        <v>0.8212904</v>
       </c>
       <c r="X25" t="n">
-        <v>0.5335538</v>
+        <v>0.1787096</v>
       </c>
       <c r="Y25" t="n">
         <v>0.3883546</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.4801389</v>
+        <v>0.719155</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.2083861</v>
+        <v>0.8830098</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.5673708</v>
+        <v>0.1169902</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.322772397</v>
+        <v>0.1031107</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.282872285</v>
+        <v>0.675744</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.3252405</v>
+        <v>0.49</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.283147</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0.2142494</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0.4373569</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0.3029009</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0.4720273</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0.5666074</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0.3086762</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0.399469705</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0.5935095</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B26" t="n">
-        <v>0.728867356</v>
+        <v>21606</v>
       </c>
       <c r="C26" t="n">
-        <v>0.545938981</v>
+        <v>23198</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4347551</v>
+        <v>16826</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4471666</v>
+        <v>19545</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1275496</v>
+        <v>12976</v>
       </c>
       <c r="G26" t="n">
-        <v>0.712592596</v>
+        <v>18812</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2098862</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.6265137</v>
-      </c>
+        <v>11126</v>
+      </c>
+      <c r="I26"/>
       <c r="J26" t="n">
-        <v>0.3352944</v>
+        <v>-0.068626606</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5392142</v>
+        <v>0.378699632</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5799797</v>
+        <v>-0.139114863</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4869313</v>
+        <v>0.506242293</v>
       </c>
       <c r="N26" t="n">
-        <v>0.5597017</v>
+        <v>-0.310227514</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6501244</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.7599111</v>
-      </c>
+        <v>0.690814309</v>
+      </c>
+      <c r="P26"/>
       <c r="Q26" t="n">
-        <v>0.470913141</v>
+        <v>0.297309268</v>
       </c>
       <c r="R26" t="n">
-        <v>0.5533439</v>
+        <v>0.095559739</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3687111</v>
+        <v>0.210718636</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6454223</v>
+        <v>0.396412357</v>
       </c>
       <c r="U26" t="n">
-        <v>0.5817042</v>
+        <v>53459.63</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6302599</v>
+        <v>30</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2992767</v>
+        <v>0.134362</v>
       </c>
       <c r="X26" t="n">
-        <v>0.1041886</v>
+        <v>0.865638</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.719155</v>
+        <v>0.4801389</v>
       </c>
       <c r="Z26" t="n">
         <v>0.2189596</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.7699285</v>
+        <v>0.2376922</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.1957992</v>
+        <v>0.7623078</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.632634077</v>
+        <v>0.2527093</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.793979059</v>
+        <v>0.524</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.5099583</v>
+        <v>0.386</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.6822566</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0.6906479</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0.4912615</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0.4848317</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0.6642431</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0.5740416</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0.5115258</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0.706925517</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0.6364758</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B27" t="n">
-        <v>0.937348933</v>
+        <v>191739</v>
       </c>
       <c r="C27" t="n">
-        <v>0.33563305</v>
+        <v>178874</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2862544</v>
+        <v>176482</v>
       </c>
       <c r="E27" t="n">
-        <v>0.258534</v>
+        <v>180203</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1284832</v>
+        <v>179489</v>
       </c>
       <c r="G27" t="n">
-        <v>0.905632059</v>
+        <v>175299</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1614743</v>
+        <v>156239</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4315085</v>
+        <v>156146</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4104115</v>
+        <v>0.071922135</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3058777</v>
+        <v>0.01355379</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4319587</v>
+        <v>-0.020648935</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4549677</v>
+        <v>0.00397796</v>
       </c>
       <c r="N27" t="n">
-        <v>0.3289962</v>
+        <v>0.023902019</v>
       </c>
       <c r="O27" t="n">
-        <v>0.346057</v>
+        <v>0.121992588</v>
       </c>
       <c r="P27" t="n">
-        <v>0.9301836</v>
+        <v>0.000596</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.656434404</v>
+        <v>0.266226095</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6322089</v>
+        <v>0.307281412</v>
       </c>
       <c r="S27" t="n">
-        <v>0.25278</v>
+        <v>0.289116403</v>
       </c>
       <c r="T27" t="n">
-        <v>0.5875261</v>
+        <v>0.137376089</v>
       </c>
       <c r="U27" t="n">
-        <v>0.2811768</v>
+        <v>75178.09</v>
       </c>
       <c r="V27" t="n">
-        <v>0.42106</v>
+        <v>35</v>
       </c>
       <c r="W27" t="n">
-        <v>0.176311</v>
+        <v>0.8480359</v>
       </c>
       <c r="X27" t="n">
-        <v>0.4028286</v>
+        <v>0.1519641</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.8830098</v>
+        <v>0.2083861</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.2376922</v>
+        <v>0.7699285</v>
       </c>
       <c r="AA27" t="n">
         <v>0.9746451</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.1365224</v>
+        <v>0.0253549</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.795390763</v>
+        <v>0.0891769</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.96056772</v>
+        <v>0.654</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.3360275</v>
+        <v>0.544</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.9835638</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0.8934989</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0.3786135</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0.2167337</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0.2985358</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0.2385404</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0.5897762</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0.865957831</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0.3266039</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B28" t="n">
-        <v>0.062651067</v>
+        <v>171709</v>
       </c>
       <c r="C28" t="n">
-        <v>0.66436695</v>
+        <v>155573</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7137456</v>
+        <v>134469</v>
       </c>
       <c r="E28" t="n">
-        <v>0.741466</v>
+        <v>126331</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8715168</v>
+        <v>93142</v>
       </c>
       <c r="G28" t="n">
-        <v>0.094367941</v>
+        <v>86775</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8385257</v>
+        <v>73358</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5684915</v>
+        <v>51907</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5895885</v>
+        <v>0.103719797</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6941223</v>
+        <v>0.156943236</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5680413</v>
+        <v>0.064418076</v>
       </c>
       <c r="M28" t="n">
-        <v>0.5450323</v>
+        <v>0.356326899</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6710038</v>
+        <v>0.073373668</v>
       </c>
       <c r="O28" t="n">
-        <v>0.653943</v>
+        <v>0.182897571</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0698164</v>
+        <v>0.413258327</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.343565596</v>
+        <v>0.429233447</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3677911</v>
+        <v>0.137629887</v>
       </c>
       <c r="S28" t="n">
-        <v>0.74722</v>
+        <v>0.13906157</v>
       </c>
       <c r="T28" t="n">
-        <v>0.4124739</v>
+        <v>0.294075096</v>
       </c>
       <c r="U28" t="n">
-        <v>0.7188232</v>
+        <v>52581.83</v>
       </c>
       <c r="V28" t="n">
-        <v>0.57894</v>
+        <v>29</v>
       </c>
       <c r="W28" t="n">
-        <v>0.823689</v>
+        <v>0.065756</v>
       </c>
       <c r="X28" t="n">
-        <v>0.5971714</v>
+        <v>0.934244</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.1169902</v>
+        <v>0.5673708</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.7623078</v>
+        <v>0.1957992</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0253549</v>
+        <v>0.1365224</v>
       </c>
       <c r="AB28" t="n">
         <v>0.8634776</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.204609237</v>
+        <v>0.1708887</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.03943228</v>
+        <v>0.481</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.6639725</v>
+        <v>0.294</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.0164362</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0.1065011</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0.6213865</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0.7832663</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0.7014642</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0.7614596</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0.4102238</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0.134042169</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0.6733961</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215890677</v>
+        <v>608219</v>
       </c>
       <c r="C29" t="n">
-        <v>0.091560215</v>
+        <v>595986</v>
       </c>
       <c r="D29" t="n">
-        <v>0.064189</v>
+        <v>554946</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1285078</v>
+        <v>557154</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1516087</v>
+        <v>525750</v>
       </c>
       <c r="G29" t="n">
-        <v>0.122601998</v>
+        <v>543198</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1597803</v>
+        <v>506017</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1201174</v>
+        <v>507916</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3055431</v>
+        <v>0.02052565</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0870009</v>
+        <v>0.073953141</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1681238</v>
+        <v>-0.003962998</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1429915</v>
+        <v>0.059731812</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1076503</v>
+        <v>-0.032120884</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0761472</v>
+        <v>0.073477769</v>
       </c>
       <c r="P29" t="n">
-        <v>0.11358</v>
+        <v>-0.003738807</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.250710904</v>
+        <v>0.131289763</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0983452</v>
+        <v>0.356876354</v>
       </c>
       <c r="S29" t="n">
-        <v>0.132103</v>
+        <v>0.343077717</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0451016</v>
+        <v>0.168756166</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1392951</v>
+        <v>57372</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1223037</v>
+        <v>31</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1318565</v>
+        <v>0.593606159</v>
       </c>
       <c r="X29" t="n">
-        <v>0.2191115</v>
+        <v>0.406393841</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1031107</v>
+        <v>0.322772397</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.2527093</v>
+        <v>0.632634077</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.0891769</v>
+        <v>0.795390763</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.1708887</v>
+        <v>0.204609237</v>
       </c>
       <c r="AC29" t="n">
         <v>0.12048844</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.071473621</v>
+        <v>0.590934388</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.144306</v>
+        <v>0.401167051</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.1025924</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0.1251943</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0.1862496</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0.0914739</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0.0617688</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0.1410824</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0.1200135</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0.104981785</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0.1139326</v>
+        <v>0.598832949</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B30" t="n">
-        <v>0.421894825</v>
+        <v>197285202</v>
       </c>
       <c r="C30" t="n">
-        <v>0.704686801</v>
+        <v>197479450</v>
       </c>
       <c r="D30" t="n">
-        <v>0.821</v>
+        <v>197534496</v>
       </c>
       <c r="E30" t="n">
-        <v>0.467</v>
+        <v>197409353</v>
       </c>
       <c r="F30" t="n">
-        <v>0.285</v>
+        <v>197392411</v>
       </c>
       <c r="G30" t="n">
-        <v>0.518931721</v>
+        <v>197243423</v>
       </c>
       <c r="H30" t="n">
-        <v>0.368</v>
+        <v>197084523</v>
       </c>
       <c r="I30" t="n">
-        <v>0.568</v>
+        <v>196929412</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4028678</v>
+        <v>-0.000984</v>
       </c>
       <c r="K30" t="n">
-        <v>0.706</v>
+        <v>-0.000279</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5306361</v>
+        <v>0.000634</v>
       </c>
       <c r="M30" t="n">
-        <v>0.429151</v>
+        <v>0.0000858</v>
       </c>
       <c r="N30" t="n">
-        <v>0.66</v>
+        <v>0.000755</v>
       </c>
       <c r="O30" t="n">
-        <v>0.774</v>
+        <v>0.000806</v>
       </c>
       <c r="P30" t="n">
-        <v>0.716</v>
+        <v>0.000788</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.438944823</v>
+        <v>0.076687018</v>
       </c>
       <c r="R30" t="n">
-        <v>0.534</v>
+        <v>0.27680407</v>
       </c>
       <c r="S30" t="n">
-        <v>0.692</v>
+        <v>0.301189074</v>
       </c>
       <c r="T30" t="n">
-        <v>0.838</v>
+        <v>0.345319838</v>
       </c>
       <c r="U30" t="n">
-        <v>0.693</v>
+        <v>63256</v>
       </c>
       <c r="V30" t="n">
-        <v>0.634</v>
+        <v>43</v>
       </c>
       <c r="W30" t="n">
-        <v>0.746</v>
+        <v>0.94549614</v>
       </c>
       <c r="X30" t="n">
-        <v>0.393</v>
+        <v>0.05450386</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.675744</v>
+        <v>0.282872285</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.524</v>
+        <v>0.793979059</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.654</v>
+        <v>0.96056772</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.481</v>
+        <v>0.03943228</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.590934388</v>
+        <v>0.071473621</v>
       </c>
       <c r="AD30" t="n">
         <v>0.749942044</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.578</v>
+        <v>0.716282627</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.5258024</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0.582</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0.6001058</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0.809</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0.672281112</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0.621</v>
+        <v>0.283717373</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B31" t="n">
-        <v>0.54096296</v>
+        <v>499099</v>
       </c>
       <c r="C31" t="n">
-        <v>0.586957773</v>
+        <v>460515</v>
       </c>
       <c r="D31" t="n">
-        <v>0.611</v>
+        <v>482704</v>
       </c>
       <c r="E31" t="n">
-        <v>0.462</v>
+        <v>451489</v>
       </c>
       <c r="F31" t="n">
-        <v>0.203</v>
+        <v>442360</v>
       </c>
       <c r="G31" t="n">
-        <v>0.419401916</v>
+        <v>366407</v>
       </c>
       <c r="H31" t="n">
-        <v>0.37</v>
+        <v>351049</v>
       </c>
       <c r="I31" t="n">
-        <v>0.594</v>
+        <v>363699</v>
       </c>
       <c r="J31" t="n">
-        <v>0.325</v>
+        <v>0.083784459</v>
       </c>
       <c r="K31" t="n">
-        <v>0.679</v>
+        <v>-0.04596813</v>
       </c>
       <c r="L31" t="n">
-        <v>0.544</v>
+        <v>0.069137897</v>
       </c>
       <c r="M31" t="n">
-        <v>0.27</v>
+        <v>0.020637038</v>
       </c>
       <c r="N31" t="n">
-        <v>0.671</v>
+        <v>0.207291345</v>
       </c>
       <c r="O31" t="n">
-        <v>0.659</v>
+        <v>0.043748878</v>
       </c>
       <c r="P31" t="n">
-        <v>0.49</v>
+        <v>-0.034781509</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.463640334</v>
+        <v>0.332515737</v>
       </c>
       <c r="R31" t="n">
-        <v>0.55</v>
+        <v>0.120168615</v>
       </c>
       <c r="S31" t="n">
-        <v>0.564</v>
+        <v>0.176414119</v>
       </c>
       <c r="T31" t="n">
-        <v>0.676</v>
+        <v>0.370901529</v>
       </c>
       <c r="U31" t="n">
-        <v>0.563</v>
+        <v>78207.98</v>
       </c>
       <c r="V31" t="n">
-        <v>0.649</v>
+        <v>31</v>
       </c>
       <c r="W31" t="n">
-        <v>0.461</v>
+        <v>0.1494071</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0937</v>
+        <v>0.8505929</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.49</v>
+        <v>0.3252405</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.386</v>
+        <v>0.5099583</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.544</v>
+        <v>0.3360275</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.294</v>
+        <v>0.6639725</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.401167051</v>
+        <v>0.144306</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.716282627</v>
+        <v>0.578</v>
       </c>
       <c r="AE31" t="n">
         <v>0.58</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0.746</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0.649</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0.638186806</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0.71</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B32" t="n">
-        <v>0.45903704</v>
+        <v>5588664</v>
       </c>
       <c r="C32" t="n">
-        <v>0.413042227</v>
+        <v>5450472</v>
       </c>
       <c r="D32" t="n">
-        <v>0.389</v>
+        <v>5372759</v>
       </c>
       <c r="E32" t="n">
-        <v>0.538</v>
+        <v>5266738</v>
       </c>
       <c r="F32" t="n">
-        <v>0.797</v>
+        <v>5138109</v>
       </c>
       <c r="G32" t="n">
-        <v>0.580598084</v>
+        <v>4970604</v>
       </c>
       <c r="H32" t="n">
-        <v>0.63</v>
+        <v>4885294</v>
       </c>
       <c r="I32" t="n">
-        <v>0.406</v>
+        <v>4691890</v>
       </c>
       <c r="J32" t="n">
-        <v>0.675</v>
+        <v>0.025354134</v>
       </c>
       <c r="K32" t="n">
-        <v>0.321</v>
+        <v>0.014464263</v>
       </c>
       <c r="L32" t="n">
-        <v>0.456</v>
+        <v>0.020130297</v>
       </c>
       <c r="M32" t="n">
-        <v>0.73</v>
+        <v>0.025034307</v>
       </c>
       <c r="N32" t="n">
-        <v>0.329</v>
+        <v>0.033699124</v>
       </c>
       <c r="O32" t="n">
-        <v>0.341</v>
+        <v>0.017462613</v>
       </c>
       <c r="P32" t="n">
-        <v>0.51</v>
+        <v>0.041220915</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.536359666</v>
+        <v>0.423980846</v>
       </c>
       <c r="R32" t="n">
-        <v>0.45</v>
+        <v>0.222844028</v>
       </c>
       <c r="S32" t="n">
-        <v>0.436</v>
+        <v>0.234116577</v>
       </c>
       <c r="T32" t="n">
-        <v>0.324</v>
+        <v>0.119058549</v>
       </c>
       <c r="U32" t="n">
-        <v>0.437</v>
+        <v>49703.31</v>
       </c>
       <c r="V32" t="n">
-        <v>0.351</v>
+        <v>29</v>
       </c>
       <c r="W32" t="n">
-        <v>0.539</v>
+        <v>0.396582</v>
       </c>
       <c r="X32" t="n">
-        <v>0.906</v>
+        <v>0.603418</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.51</v>
+        <v>0.283147</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.614</v>
+        <v>0.6822566</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.456</v>
+        <v>0.9835638</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.706</v>
+        <v>0.0164362</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.598832949</v>
+        <v>0.1025924</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.283717373</v>
+        <v>0.5258024</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.42</v>
+        <v>0.378</v>
       </c>
       <c r="AF32" t="n">
         <v>0.622</v>
       </c>
-      <c r="AG32" t="n">
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="n">
+        <v>105076</v>
+      </c>
+      <c r="C33" t="n">
+        <v>119605</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120019</v>
+      </c>
+      <c r="E33" t="n">
+        <v>114288</v>
+      </c>
+      <c r="F33" t="n">
+        <v>105235</v>
+      </c>
+      <c r="G33" t="n">
+        <v>103079</v>
+      </c>
+      <c r="H33" t="n">
+        <v>108849</v>
+      </c>
+      <c r="I33" t="n">
+        <v>109637</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.121474855</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.003449454</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.050145247</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.086026512</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.020915996</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0.053009215</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0.007187355</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.316083293</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.297146161</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.284521406</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.10224914</v>
+      </c>
+      <c r="U33" t="n">
+        <v>69974.28</v>
+      </c>
+      <c r="V33" t="n">
+        <v>30</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.5197871</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.4802129</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.2142494</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.6906479</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.8934989</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.1065011</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.1251943</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="AF33" t="n">
         <v>0.687</v>
       </c>
-      <c r="AH32" t="n">
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3721161</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3460404</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3403619</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3320848</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3260031</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3148370</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3071280</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3049280</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.075354496</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.016683712</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.024924658</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.018655344</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.035466289</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.025100284</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.007214818</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.307869376</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.199085063</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.249888951</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.24315661</v>
+      </c>
+      <c r="U34" t="n">
+        <v>64201.05</v>
+      </c>
+      <c r="V34" t="n">
+        <v>35</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.1696343</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.8303657</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.4373569</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.4912615</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.3786135</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.6213865</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.1862496</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.6001058</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AF34" t="n">
         <v>0.53</v>
       </c>
-      <c r="AI32" t="n">
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="n">
+        <v>44460</v>
+      </c>
+      <c r="C35" t="n">
+        <v>52006</v>
+      </c>
+      <c r="D35" t="n">
+        <v>52932</v>
+      </c>
+      <c r="E35" t="n">
+        <v>40317</v>
+      </c>
+      <c r="F35" t="n">
+        <v>47059</v>
+      </c>
+      <c r="G35" t="n">
+        <v>45328</v>
+      </c>
+      <c r="H35" t="n">
+        <v>44742</v>
+      </c>
+      <c r="I35" t="n">
+        <v>38596</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.145098642</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.017494143</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.312895305</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.143266963</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.038188316</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.013097313</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.159239299</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.208817444</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.133785044</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.203315068</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.454082445</v>
+      </c>
+      <c r="U35" t="n">
+        <v>92614.47</v>
+      </c>
+      <c r="V35" t="n">
+        <v>37</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.2975902</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.7024098</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.3029009</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.4848317</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.2167337</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.7832663</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.0914739</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="AF35" t="n">
         <v>0.402</v>
       </c>
-      <c r="AJ32" t="n">
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>164795</v>
+      </c>
+      <c r="C36" t="n">
+        <v>165883</v>
+      </c>
+      <c r="D36" t="n">
+        <v>159951</v>
+      </c>
+      <c r="E36" t="n">
+        <v>153899</v>
+      </c>
+      <c r="F36" t="n">
+        <v>150727</v>
+      </c>
+      <c r="G36" t="n">
+        <v>153587</v>
+      </c>
+      <c r="H36" t="n">
+        <v>158271</v>
+      </c>
+      <c r="I36" t="n">
+        <v>196691</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.00655884</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.037086358</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.039324492</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.02104467</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.018621368</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0.029594809</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-0.195331764</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.143774293</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.077304869</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.142936335</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.635984504</v>
+      </c>
+      <c r="U36" t="n">
+        <v>108050.7</v>
+      </c>
+      <c r="V36" t="n">
+        <v>37</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.1600202</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.8399798</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.4720273</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.6642431</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.2985358</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.7014642</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.0617688</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.809</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="AF36" t="n">
         <v>0.254</v>
       </c>
-      <c r="AK32" t="n">
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>211384</v>
+      </c>
+      <c r="C37" t="n">
+        <v>202744</v>
+      </c>
+      <c r="D37" t="n">
+        <v>194766</v>
+      </c>
+      <c r="E37" t="n">
+        <v>194563</v>
+      </c>
+      <c r="F37" t="n">
+        <v>184368</v>
+      </c>
+      <c r="G37" t="n">
+        <v>182708</v>
+      </c>
+      <c r="H37" t="n">
+        <v>189889</v>
+      </c>
+      <c r="I37" t="n">
+        <v>166620</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.042615318</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.040961975</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.001043364</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.055297015</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.009085535</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-0.03781683</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.139653103</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.262793316</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.166419956</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.20408844</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.366698287</v>
+      </c>
+      <c r="U37" t="n">
+        <v>82323.97</v>
+      </c>
+      <c r="V37" t="n">
+        <v>40</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.2531912</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7468088</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.5666074</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.5740416</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.2385404</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7614596</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.1410824</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="AF37" t="n">
         <v>0.351</v>
       </c>
-      <c r="AL32" t="n">
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="n">
+        <v>45610</v>
+      </c>
+      <c r="C38" t="n">
+        <v>43937</v>
+      </c>
+      <c r="D38" t="n">
+        <v>46258</v>
+      </c>
+      <c r="E38" t="n">
+        <v>34626</v>
+      </c>
+      <c r="F38" t="n">
+        <v>40196</v>
+      </c>
+      <c r="G38" t="n">
+        <v>49075</v>
+      </c>
+      <c r="H38" t="n">
+        <v>48194</v>
+      </c>
+      <c r="I38" t="n">
+        <v>41219</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.038077247</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.050175105</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.335932536</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.138571002</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.180927152</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.018280284</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.169218079</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.369898166</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.253747873</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.281326815</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.095027147</v>
+      </c>
+      <c r="U38" t="n">
+        <v>73917.91</v>
+      </c>
+      <c r="V38" t="n">
+        <v>28</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.3735993</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6264007</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.3086762</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.5115258</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.5897762</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.4102238</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.1200135</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="AF38" t="n">
         <v>0.556</v>
       </c>
-      <c r="AM32" t="n">
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="n">
+        <v>325719178</v>
+      </c>
+      <c r="C39" t="n">
+        <v>323127515</v>
+      </c>
+      <c r="D39" t="n">
+        <v>321418821</v>
+      </c>
+      <c r="E39" t="n">
+        <v>318857056</v>
+      </c>
+      <c r="F39" t="n">
+        <v>316128839</v>
+      </c>
+      <c r="G39" t="n">
+        <v>313914040</v>
+      </c>
+      <c r="H39" t="n">
+        <v>311591919</v>
+      </c>
+      <c r="I39" t="n">
+        <v>309349689</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.008020558</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.005316098</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.008034211</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.008630079</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.007055431</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.007452443</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.007248205</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.12686413</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.27323791</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.29062208</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.30927588</v>
+      </c>
+      <c r="U39" t="n">
+        <v>57652</v>
+      </c>
+      <c r="V39" t="n">
+        <v>38</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.764731542</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.213252541</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.399469705</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.706925517</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.865957831</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.134042169</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.104981785</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.672281112</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.638186806</v>
+      </c>
+      <c r="AF39" t="n">
         <v>0.361813194</v>
       </c>
-      <c r="AN32" t="n">
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1826998</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1803575</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1738848</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1714143</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1692760</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1675246</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1669447</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1548449</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.012986984</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.03722407</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.01441245</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.012632033</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.010454584</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.003473605</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.078141418</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.384342879</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.178630079</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.217030504</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.219996538</v>
+      </c>
+      <c r="U40" t="n">
+        <v>74827.98</v>
+      </c>
+      <c r="V40" t="n">
+        <v>38</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.1470458</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.8529542</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.5935095</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.6364758</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.3266039</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.6733961</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.1139326</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AF40" t="n">
         <v>0.29</v>
       </c>
     </row>
